--- a/data/trans_orig/P6704-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P6704-Clase-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>41919</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>30027</v>
+        <v>30627</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>57241</v>
+        <v>56173</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1389056739211033</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09949939390137541</v>
+        <v>0.1014883744978218</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1896759649489393</v>
+        <v>0.1861369951535899</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>23</v>
@@ -764,19 +764,19 @@
         <v>27090</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>18330</v>
+        <v>17682</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>39376</v>
+        <v>39133</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1407766789882467</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09525360057276869</v>
+        <v>0.09189041391064506</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2046260679245621</v>
+        <v>0.2033616252411398</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>62</v>
@@ -785,19 +785,19 @@
         <v>69009</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>54553</v>
+        <v>55138</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>87208</v>
+        <v>86857</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1396341848671926</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1103849226502635</v>
+        <v>0.1115675478308761</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1764589067479679</v>
+        <v>0.1757480547170144</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>56130</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>44052</v>
+        <v>43110</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>72456</v>
+        <v>72719</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1859948714840478</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1459734002360352</v>
+        <v>0.142850533949901</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2400944701351711</v>
+        <v>0.2409671047610896</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>35</v>
@@ -835,19 +835,19 @@
         <v>37004</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>26326</v>
+        <v>27188</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>49213</v>
+        <v>48954</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1922978135019341</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1368068635592761</v>
+        <v>0.1412893402615454</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2557455073149785</v>
+        <v>0.2543988415182565</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>86</v>
@@ -856,19 +856,19 @@
         <v>93134</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>75530</v>
+        <v>75876</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>111531</v>
+        <v>114447</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1884490402798634</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1528303284853094</v>
+        <v>0.1535292682347965</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.225673971628256</v>
+        <v>0.2315757240896338</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>96136</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>79354</v>
+        <v>79639</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>113566</v>
+        <v>112973</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.31856252298488</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2629523914211948</v>
+        <v>0.2638950440976921</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3763199153630345</v>
+        <v>0.3743528670798225</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>55</v>
@@ -906,19 +906,19 @@
         <v>61215</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>48519</v>
+        <v>48495</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>76092</v>
+        <v>76779</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3181176355286786</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2521389506876406</v>
+        <v>0.2520162394550296</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3954264749174083</v>
+        <v>0.3989961059473198</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>146</v>
@@ -927,19 +927,19 @@
         <v>157351</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>136408</v>
+        <v>135789</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>178926</v>
+        <v>178488</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3183892977022166</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2760120080214394</v>
+        <v>0.2747596994590829</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3620438072189512</v>
+        <v>0.3611578090055487</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>54258</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>40757</v>
+        <v>40347</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>69021</v>
+        <v>69125</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1797937474479512</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1350532820037747</v>
+        <v>0.1336964292632487</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2287122605283191</v>
+        <v>0.2290582923148592</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>35</v>
@@ -977,19 +977,19 @@
         <v>38695</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>27773</v>
+        <v>27684</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>51820</v>
+        <v>50389</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2010854830908296</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1443252301927372</v>
+        <v>0.1438664483005004</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2692952400537584</v>
+        <v>0.2618558805843506</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>86</v>
@@ -998,19 +998,19 @@
         <v>92953</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>76705</v>
+        <v>75453</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>113382</v>
+        <v>112432</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.188084084416818</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1552062029692245</v>
+        <v>0.1526734640772096</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2294200991135147</v>
+        <v>0.2274970982490586</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>53338</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>41116</v>
+        <v>40349</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>67486</v>
+        <v>68327</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1767431841620177</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1362438866573053</v>
+        <v>0.1337041149518032</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2236264793279301</v>
+        <v>0.2264132256293317</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>26</v>
@@ -1048,19 +1048,19 @@
         <v>28426</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>20130</v>
+        <v>20002</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>39485</v>
+        <v>39870</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.147722388890311</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1046099118417844</v>
+        <v>0.1039426985669788</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2051936909261161</v>
+        <v>0.2071947932587049</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>76</v>
@@ -1069,19 +1069,19 @@
         <v>81764</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>65808</v>
+        <v>65564</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>99713</v>
+        <v>99594</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1654433927339093</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1331581340463495</v>
+        <v>0.1326645221008978</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2017614840741563</v>
+        <v>0.201520524697988</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>35393</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>25280</v>
+        <v>25036</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>49435</v>
+        <v>50406</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1381481009563801</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0986728357622762</v>
+        <v>0.09772229368757018</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1929573871915589</v>
+        <v>0.196745261417944</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>44</v>
@@ -1194,19 +1194,19 @@
         <v>47959</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>35797</v>
+        <v>37155</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>60364</v>
+        <v>62206</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2888322372716108</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2155869117908081</v>
+        <v>0.2237631981330252</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3635443188728843</v>
+        <v>0.3746346459823587</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>74</v>
@@ -1215,19 +1215,19 @@
         <v>83352</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>66694</v>
+        <v>68155</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>103457</v>
+        <v>101978</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1974037469500793</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1579513000107813</v>
+        <v>0.1614133458005364</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2450193348618907</v>
+        <v>0.2415161637189594</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>46097</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>32440</v>
+        <v>32846</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>60610</v>
+        <v>61432</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1799265781442876</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1266201249964822</v>
+        <v>0.1282076308135141</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2365773537429466</v>
+        <v>0.2397841535477077</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>23</v>
@@ -1265,19 +1265,19 @@
         <v>25704</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>17082</v>
+        <v>16539</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>37242</v>
+        <v>36052</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1548024247949433</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1028778068735132</v>
+        <v>0.09960584217254274</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2242895537589162</v>
+        <v>0.2171255259552901</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>59</v>
@@ -1286,19 +1286,19 @@
         <v>71801</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>53842</v>
+        <v>56079</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>90265</v>
+        <v>92621</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1700466533349122</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.12751524909746</v>
+        <v>0.1328122381064889</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2137765445642129</v>
+        <v>0.2193565145346582</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>84407</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>67055</v>
+        <v>69016</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>99326</v>
+        <v>100913</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3294604622078436</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2617338392250853</v>
+        <v>0.2693851320052399</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3876943758403722</v>
+        <v>0.3938870333546122</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>48</v>
@@ -1336,19 +1336,19 @@
         <v>50767</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>38406</v>
+        <v>38685</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>64353</v>
+        <v>63645</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3057438075809969</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2312990629635883</v>
+        <v>0.2329781852685122</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.38756854381809</v>
+        <v>0.3833039013829889</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>129</v>
@@ -1357,19 +1357,19 @@
         <v>135174</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>114826</v>
+        <v>117181</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>155704</v>
+        <v>156384</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3201340279521281</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2719435099306748</v>
+        <v>0.2775204988990024</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3687561042972018</v>
+        <v>0.3703677332726463</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>46467</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>33551</v>
+        <v>34356</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>60400</v>
+        <v>60199</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1813713818357651</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1309574709758593</v>
+        <v>0.1341006090704642</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.235757954811586</v>
+        <v>0.2349709429920203</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>20</v>
@@ -1407,19 +1407,19 @@
         <v>21875</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>13603</v>
+        <v>13926</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>32473</v>
+        <v>31887</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1317420039808382</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08192223860461605</v>
+        <v>0.08387070244404313</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1955689352322882</v>
+        <v>0.1920388176520656</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>64</v>
@@ -1428,19 +1428,19 @@
         <v>68342</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>53123</v>
+        <v>52632</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>85747</v>
+        <v>83525</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1618549223266705</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1258123400515554</v>
+        <v>0.1246490111103996</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2030759380846098</v>
+        <v>0.1978135806432306</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>43834</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>31586</v>
+        <v>31889</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>57531</v>
+        <v>56927</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1710934768557236</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1232874216283716</v>
+        <v>0.1244692765089826</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2245583362784913</v>
+        <v>0.2222008033753216</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>16</v>
@@ -1478,19 +1478,19 @@
         <v>19739</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>11482</v>
+        <v>11450</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>30599</v>
+        <v>29367</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1188795263716109</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06914840896782158</v>
+        <v>0.06895659044702268</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.184284654596117</v>
+        <v>0.1768629182590386</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>55</v>
@@ -1499,19 +1499,19 @@
         <v>63573</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>48919</v>
+        <v>48264</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>80601</v>
+        <v>81419</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1505606494362098</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1158560335205512</v>
+        <v>0.1143037124014055</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1908885298922637</v>
+        <v>0.192826646216731</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>46466</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>34651</v>
+        <v>35028</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>59325</v>
+        <v>60960</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1661301018703301</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1238878000480609</v>
+        <v>0.1252372566078063</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2121053315102675</v>
+        <v>0.217952115692415</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>21</v>
@@ -1624,19 +1624,19 @@
         <v>21405</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>14662</v>
+        <v>14162</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>31433</v>
+        <v>31405</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1971557913097856</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1350447522967643</v>
+        <v>0.1304393400727038</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2895194781848406</v>
+        <v>0.2892669280296546</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>65</v>
@@ -1645,19 +1645,19 @@
         <v>67871</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>54692</v>
+        <v>52573</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>86594</v>
+        <v>83769</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1748056830926945</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1408626853430295</v>
+        <v>0.1354049797110373</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2230298026464853</v>
+        <v>0.2157523403225531</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>53970</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>42139</v>
+        <v>41717</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>68212</v>
+        <v>68965</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1929590885094018</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1506605019119284</v>
+        <v>0.1491524329429975</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2438799423272838</v>
+        <v>0.2465727816143405</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>18</v>
@@ -1695,19 +1695,19 @@
         <v>18751</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>11280</v>
+        <v>12152</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>27277</v>
+        <v>28166</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1727138595335548</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1038945764161309</v>
+        <v>0.111932419554955</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2512402158959561</v>
+        <v>0.2594301466713705</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>72</v>
@@ -1716,19 +1716,19 @@
         <v>72721</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>58514</v>
+        <v>58234</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>89640</v>
+        <v>89220</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1872980014709309</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1507070350405678</v>
+        <v>0.149985893751977</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2308744823218104</v>
+        <v>0.2297930798910857</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>92513</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>77657</v>
+        <v>77054</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>109461</v>
+        <v>108580</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3307650078509265</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2776478902751596</v>
+        <v>0.2754921395609648</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3913600881384687</v>
+        <v>0.3882089928915767</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>30</v>
@@ -1766,19 +1766,19 @@
         <v>33297</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>22831</v>
+        <v>23602</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>43336</v>
+        <v>43908</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3066903414632383</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2102921869405449</v>
+        <v>0.217389897399873</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3991587552561761</v>
+        <v>0.4044271590481051</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>122</v>
@@ -1787,19 +1787,19 @@
         <v>125810</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>108175</v>
+        <v>108186</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>143991</v>
+        <v>144908</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3240331115604252</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2786128100292441</v>
+        <v>0.2786398001288459</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3708572873339277</v>
+        <v>0.3732209032289481</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>40916</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>29227</v>
+        <v>30822</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>53292</v>
+        <v>54966</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.146287194053561</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1044944120281038</v>
+        <v>0.1101983299370543</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1905378699750684</v>
+        <v>0.1965200456588348</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>15</v>
@@ -1837,19 +1837,19 @@
         <v>15776</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>9070</v>
+        <v>10379</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>24429</v>
+        <v>25128</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1453089112680886</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0835371748559305</v>
+        <v>0.09559431000275248</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.22500838004149</v>
+        <v>0.2314470077304294</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>55</v>
@@ -1858,19 +1858,19 @@
         <v>56692</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>43087</v>
+        <v>43619</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>70327</v>
+        <v>72290</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1460136410103524</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1109723808871814</v>
+        <v>0.1123427631169146</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1811330230603886</v>
+        <v>0.1861876702431467</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>45830</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>34345</v>
+        <v>33612</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>60577</v>
+        <v>59974</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1638586077157806</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1227928230603991</v>
+        <v>0.1201725902963622</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2165823236698265</v>
+        <v>0.2144253784782746</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>19</v>
@@ -1908,19 +1908,19 @@
         <v>19340</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>12127</v>
+        <v>12084</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>28145</v>
+        <v>28123</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1781310964253327</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1116942280222614</v>
+        <v>0.1113011601955761</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2592321125153279</v>
+        <v>0.2590290542067614</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>62</v>
@@ -1929,19 +1929,19 @@
         <v>65170</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>49492</v>
+        <v>51214</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>80726</v>
+        <v>81223</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.167849562865597</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1274710722312473</v>
+        <v>0.1319045229298101</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2079157361419514</v>
+        <v>0.209194257423939</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>103629</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>85055</v>
+        <v>85678</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>122379</v>
+        <v>122149</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2449954121761565</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2010850967044054</v>
+        <v>0.2025572223990316</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2893232158808337</v>
+        <v>0.2887810666937061</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>69</v>
@@ -2054,19 +2054,19 @@
         <v>73517</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>59390</v>
+        <v>57928</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>89720</v>
+        <v>88536</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2451964186621435</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1980788374281518</v>
+        <v>0.1932019646615918</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2992368901506534</v>
+        <v>0.2952874584149003</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>163</v>
@@ -2075,19 +2075,19 @@
         <v>177146</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>152966</v>
+        <v>155318</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>202270</v>
+        <v>202888</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2450787915086522</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.211627046931692</v>
+        <v>0.21488055813794</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.27983811849828</v>
+        <v>0.2806929685539287</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>71946</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>56613</v>
+        <v>57497</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>89108</v>
+        <v>89403</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1700923519596312</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1338430323252011</v>
+        <v>0.1359324684942025</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2106668497219135</v>
+        <v>0.2113642052826448</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>44</v>
@@ -2125,19 +2125,19 @@
         <v>48179</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>36133</v>
+        <v>36262</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>61514</v>
+        <v>62819</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1606880056124129</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1205105263882185</v>
+        <v>0.1209416841350542</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2051642388536941</v>
+        <v>0.2095175865459567</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>113</v>
@@ -2146,19 +2146,19 @@
         <v>120125</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>101199</v>
+        <v>100453</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>140534</v>
+        <v>141583</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1661913429094056</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1400074102124137</v>
+        <v>0.1389759668591478</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1944270212337209</v>
+        <v>0.1958784905951054</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>128943</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>110394</v>
+        <v>110060</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>150498</v>
+        <v>151747</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3048433630863376</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2609897339911721</v>
+        <v>0.2601996490073417</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3558025146787548</v>
+        <v>0.3587544449779141</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>83</v>
@@ -2196,19 +2196,19 @@
         <v>87654</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>71740</v>
+        <v>73530</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>104098</v>
+        <v>104638</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2923450455838935</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2392700508920005</v>
+        <v>0.245240178864489</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3471921394467218</v>
+        <v>0.3489936701710313</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>204</v>
@@ -2217,19 +2217,19 @@
         <v>216597</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>191356</v>
+        <v>192053</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>243409</v>
+        <v>241149</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2996589464464668</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2647388706100037</v>
+        <v>0.265702654025416</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3367534328522425</v>
+        <v>0.3336272196136545</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>60902</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>48049</v>
+        <v>47810</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>76444</v>
+        <v>76066</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1439826136568807</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1135956260794152</v>
+        <v>0.1130313223254109</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1807254608603091</v>
+        <v>0.1798324386762357</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>46</v>
@@ -2267,19 +2267,19 @@
         <v>46480</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>35729</v>
+        <v>34496</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>61236</v>
+        <v>60689</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.155023036251373</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.119163198976505</v>
+        <v>0.115050836033694</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.204236462949723</v>
+        <v>0.2024129529472825</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>106</v>
@@ -2288,19 +2288,19 @@
         <v>107382</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>89082</v>
+        <v>88873</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>126930</v>
+        <v>128126</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1485622821281688</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1232443440488382</v>
+        <v>0.1229548282866173</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.175606295210389</v>
+        <v>0.1772605873025894</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>57562</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>42903</v>
+        <v>42967</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>73578</v>
+        <v>72739</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.136086259120994</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.101429208018087</v>
+        <v>0.1015805285164129</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1739508524919477</v>
+        <v>0.1719681238569481</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>40</v>
@@ -2338,19 +2338,19 @@
         <v>43999</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>32734</v>
+        <v>31948</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>57881</v>
+        <v>58624</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1467474938901772</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1091771436198331</v>
+        <v>0.1065531811536758</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1930471935942332</v>
+        <v>0.1955248796770657</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>94</v>
@@ -2359,19 +2359,19 @@
         <v>101561</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>83255</v>
+        <v>84171</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>122284</v>
+        <v>123686</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1405086370073066</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1151827529629988</v>
+        <v>0.1164498749605074</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1691780891402695</v>
+        <v>0.1711173773200091</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>35936</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>26740</v>
+        <v>25398</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>47618</v>
+        <v>46346</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2365215797117744</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1759953477583644</v>
+        <v>0.1671664873587644</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3134131556205081</v>
+        <v>0.3050360336682018</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>46</v>
@@ -2484,19 +2484,19 @@
         <v>50914</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>39782</v>
+        <v>38384</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>64604</v>
+        <v>63815</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2947898735512825</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.230335487917232</v>
+        <v>0.2222382636922871</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3740525486166605</v>
+        <v>0.3694820485598856</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>80</v>
@@ -2505,19 +2505,19 @@
         <v>86850</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>71056</v>
+        <v>70143</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>102678</v>
+        <v>103162</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2675204563708294</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2188710099589564</v>
+        <v>0.216056700891061</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3162752600296225</v>
+        <v>0.3177636847966432</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>30069</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>21634</v>
+        <v>21425</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>41986</v>
+        <v>42060</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1979092646856398</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1423889951661254</v>
+        <v>0.1410133494697549</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2763423136370094</v>
+        <v>0.2768269277357401</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>30</v>
@@ -2555,19 +2555,19 @@
         <v>32419</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>23030</v>
+        <v>22935</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>44560</v>
+        <v>43954</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1877032449715135</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.133344085691607</v>
+        <v>0.1327907400979241</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.258001493908328</v>
+        <v>0.254491412527357</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>59</v>
@@ -2576,19 +2576,19 @@
         <v>62488</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>48134</v>
+        <v>49280</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>78709</v>
+        <v>79062</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1924796369163851</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1482658891415995</v>
+        <v>0.151793432327977</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2424428418723182</v>
+        <v>0.2435305196404925</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>39591</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>29480</v>
+        <v>29771</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>50815</v>
+        <v>52463</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2605777256316481</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.194029380054178</v>
+        <v>0.1959465361950911</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3344542433729966</v>
+        <v>0.3453017457973035</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>36</v>
@@ -2626,19 +2626,19 @@
         <v>39130</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>28727</v>
+        <v>28969</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>51475</v>
+        <v>50880</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2265598514568613</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1663293504484879</v>
+        <v>0.1677303450736661</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2980351249273687</v>
+        <v>0.2945921428767243</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>74</v>
@@ -2647,19 +2647,19 @@
         <v>78721</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>64826</v>
+        <v>64077</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>97234</v>
+        <v>95405</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2424801323049585</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1996801931770949</v>
+        <v>0.1973725522992208</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2995062061761015</v>
+        <v>0.2938720195475538</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>23806</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>15000</v>
+        <v>15594</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>35055</v>
+        <v>35948</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1566832001031047</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.09872768713052948</v>
+        <v>0.1026364999965073</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2307247409602037</v>
+        <v>0.2366032007577137</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>26</v>
@@ -2697,19 +2697,19 @@
         <v>28814</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>19860</v>
+        <v>20437</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>40766</v>
+        <v>42007</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1668300572248566</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1149891080028829</v>
+        <v>0.1183308759718439</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2360329611985929</v>
+        <v>0.243216724365301</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>47</v>
@@ -2718,19 +2718,19 @@
         <v>52620</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>40249</v>
+        <v>39389</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>69365</v>
+        <v>66845</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1620813532266645</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1239782423104332</v>
+        <v>0.1213266262168125</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2136612029654503</v>
+        <v>0.2058995697455837</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>22533</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>14947</v>
+        <v>14798</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>33454</v>
+        <v>33787</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.148308229867833</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.09837942480595993</v>
+        <v>0.09739750269660359</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2201877170793678</v>
+        <v>0.2223767266076165</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>19</v>
@@ -2768,19 +2768,19 @@
         <v>21437</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>13287</v>
+        <v>14074</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>31296</v>
+        <v>34064</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1241169727954862</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.0769301264661891</v>
+        <v>0.08148573522384291</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1812016383490107</v>
+        <v>0.1972257835576608</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>40</v>
@@ -2789,19 +2789,19 @@
         <v>43970</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>32443</v>
+        <v>33094</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>57402</v>
+        <v>58346</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1354384211811625</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.0999331308746248</v>
+        <v>0.1019368569223615</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1768129118984802</v>
+        <v>0.179720220912758</v>
       </c>
     </row>
     <row r="33">
@@ -2893,19 +2893,19 @@
         <v>263343</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>235593</v>
+        <v>234496</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>298002</v>
+        <v>296358</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1864253242227741</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1667804303087455</v>
+        <v>0.1660044929964384</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2109615613822207</v>
+        <v>0.2097977227299648</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>203</v>
@@ -2914,19 +2914,19 @@
         <v>220885</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>196608</v>
+        <v>194579</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>249245</v>
+        <v>248777</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2350874220191967</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2092490845049665</v>
+        <v>0.2070896208535951</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2652710481449569</v>
+        <v>0.2647734975044537</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>444</v>
@@ -2935,19 +2935,19 @@
         <v>484228</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>445524</v>
+        <v>445672</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>526425</v>
+        <v>527071</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2058635809916918</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1894090491938789</v>
+        <v>0.1894721067770157</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.223803234996013</v>
+        <v>0.2240780362897513</v>
       </c>
     </row>
     <row r="35">
@@ -2964,19 +2964,19 @@
         <v>258212</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>227986</v>
+        <v>225673</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>287639</v>
+        <v>286576</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.182792888714896</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.161395619925523</v>
+        <v>0.1597580667372284</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2036252186867452</v>
+        <v>0.202872785557905</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>150</v>
@@ -2985,19 +2985,19 @@
         <v>162057</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>139217</v>
+        <v>139469</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>185017</v>
+        <v>188293</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1724772125459423</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1481688221017496</v>
+        <v>0.1484371300508388</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1969131458012179</v>
+        <v>0.200399977470362</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>389</v>
@@ -3006,19 +3006,19 @@
         <v>420269</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>381597</v>
+        <v>382345</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>460831</v>
+        <v>459546</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1786722533293029</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1622315018847116</v>
+        <v>0.1625496066013592</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1959170083321961</v>
+        <v>0.1953706550227503</v>
       </c>
     </row>
     <row r="36">
@@ -3035,19 +3035,19 @@
         <v>441591</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>407325</v>
+        <v>406600</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>477904</v>
+        <v>478238</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3126104178436344</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2883532155723879</v>
+        <v>0.2878395448966153</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3383176234970022</v>
+        <v>0.3385538504765535</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>252</v>
@@ -3056,19 +3056,19 @@
         <v>272063</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>245423</v>
+        <v>242425</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>300835</v>
+        <v>299832</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2895561723600197</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.261203732821882</v>
+        <v>0.2580128766556017</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3201778303172443</v>
+        <v>0.3191109129590534</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>675</v>
@@ -3077,19 +3077,19 @@
         <v>713654</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>665761</v>
+        <v>672703</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>763236</v>
+        <v>759845</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3034013133533403</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2830402046872776</v>
+        <v>0.2859915663071325</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3244806317906721</v>
+        <v>0.3230392115672717</v>
       </c>
     </row>
     <row r="37">
@@ -3106,19 +3106,19 @@
         <v>226349</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>199527</v>
+        <v>198176</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>256090</v>
+        <v>256156</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1602366205084599</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1412490314893687</v>
+        <v>0.1402922870565594</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.181291171370091</v>
+        <v>0.1813376102047514</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>142</v>
@@ -3127,19 +3127,19 @@
         <v>151640</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>129493</v>
+        <v>130821</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>177162</v>
+        <v>175776</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1613904522311733</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1378195533404894</v>
+        <v>0.1392327475702059</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1885534882180653</v>
+        <v>0.1870781619546229</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>358</v>
@@ -3148,19 +3148,19 @@
         <v>377989</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>340623</v>
+        <v>343585</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>412833</v>
+        <v>416281</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1606975229008733</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1448117455019129</v>
+        <v>0.1460709713016198</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1755110044761131</v>
+        <v>0.176977090344929</v>
       </c>
     </row>
     <row r="38">
@@ -3177,19 +3177,19 @@
         <v>223097</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>196961</v>
+        <v>196919</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>254746</v>
+        <v>252502</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1579347487102357</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1394324298837562</v>
+        <v>0.1394026936249459</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1803395717448459</v>
+        <v>0.1787509942399701</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>120</v>
@@ -3198,19 +3198,19 @@
         <v>132941</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>113687</v>
+        <v>109575</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>158622</v>
+        <v>154721</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.141488740843668</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1209969144315044</v>
+        <v>0.1166206840029227</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1688209119322432</v>
+        <v>0.164669683229772</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>327</v>
@@ -3219,19 +3219,19 @@
         <v>356038</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>320710</v>
+        <v>320924</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>392461</v>
+        <v>395085</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1513653294247917</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1363460023361868</v>
+        <v>0.1364371732283828</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1668500243995555</v>
+        <v>0.1679656166321339</v>
       </c>
     </row>
     <row r="39">
@@ -3564,19 +3564,19 @@
         <v>46655</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>34171</v>
+        <v>35084</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>59796</v>
+        <v>61542</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1690061429398658</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1237849337616078</v>
+        <v>0.1270898990621211</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2166106381602236</v>
+        <v>0.2229348282237086</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>48</v>
@@ -3585,19 +3585,19 @@
         <v>48981</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>37603</v>
+        <v>37540</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>61166</v>
+        <v>62059</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.228698674812262</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1755743575995506</v>
+        <v>0.1752764639662722</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2855887265436881</v>
+        <v>0.289758204359959</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>91</v>
@@ -3606,19 +3606,19 @@
         <v>95636</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>78979</v>
+        <v>78345</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>113862</v>
+        <v>114351</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.195085104350715</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1611061943353514</v>
+        <v>0.1598138372806343</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2322633764995703</v>
+        <v>0.2332618204452043</v>
       </c>
     </row>
     <row r="5">
@@ -3635,19 +3635,19 @@
         <v>52132</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>39489</v>
+        <v>40149</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>67201</v>
+        <v>66610</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1888471132383349</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1430480400517059</v>
+        <v>0.1454377588172556</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2434357729638785</v>
+        <v>0.2412945043031901</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>37</v>
@@ -3656,19 +3656,19 @@
         <v>37764</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>27682</v>
+        <v>28103</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>50539</v>
+        <v>49401</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1763221135998668</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1292521009980507</v>
+        <v>0.1312166260001189</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2359727653033514</v>
+        <v>0.2306597691157206</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>84</v>
@@ -3677,19 +3677,19 @@
         <v>89895</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>74482</v>
+        <v>72469</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>110089</v>
+        <v>106794</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1833750889834288</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1519337843171635</v>
+        <v>0.1478278703531998</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2245678056802815</v>
+        <v>0.2178465225728671</v>
       </c>
     </row>
     <row r="6">
@@ -3706,19 +3706,19 @@
         <v>79142</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>62937</v>
+        <v>64808</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>94635</v>
+        <v>96424</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2866895375976285</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2279884265888911</v>
+        <v>0.2347664305369899</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3428163629652419</v>
+        <v>0.3492934335666902</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>64</v>
@@ -3727,19 +3727,19 @@
         <v>65342</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>53237</v>
+        <v>53047</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>80331</v>
+        <v>79414</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3050894260814841</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2485685427964427</v>
+        <v>0.2476827206389328</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.375073536935944</v>
+        <v>0.3707908147547674</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>135</v>
@@ -3748,19 +3748,19 @@
         <v>144484</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>123747</v>
+        <v>125445</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>164161</v>
+        <v>165251</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2947282313283646</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2524287656630986</v>
+        <v>0.2558907339166135</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3348680426593509</v>
+        <v>0.3370913463105089</v>
       </c>
     </row>
     <row r="7">
@@ -3777,19 +3777,19 @@
         <v>51017</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>38544</v>
+        <v>38827</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>66330</v>
+        <v>64811</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1848076464317875</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.139625281253442</v>
+        <v>0.1406522645218424</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2402784603399752</v>
+        <v>0.2347776000020621</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>35</v>
@@ -3798,19 +3798,19 @@
         <v>36020</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>25262</v>
+        <v>26470</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>48121</v>
+        <v>48026</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1681796360132583</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1179526365148188</v>
+        <v>0.1235900988981633</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.224679909849017</v>
+        <v>0.22423895923824</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>83</v>
@@ -3819,19 +3819,19 @@
         <v>87036</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>71017</v>
+        <v>71087</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>104866</v>
+        <v>104942</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1775430652783023</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1448653728265791</v>
+        <v>0.1450086351177589</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.213913087852687</v>
+        <v>0.2140672667194454</v>
       </c>
     </row>
     <row r="8">
@@ -3848,19 +3848,19 @@
         <v>47108</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>36528</v>
+        <v>35125</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>64453</v>
+        <v>60875</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1706495597923833</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.132323881817412</v>
+        <v>0.1272399109576972</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2334807057466461</v>
+        <v>0.2205207701718001</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>25</v>
@@ -3869,19 +3869,19 @@
         <v>26067</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>17835</v>
+        <v>17228</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>36888</v>
+        <v>36034</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1217101494931287</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.08327372037786944</v>
+        <v>0.08044124429230445</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1722329904404328</v>
+        <v>0.1682466170697005</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>68</v>
@@ -3890,19 +3890,19 @@
         <v>73175</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>57992</v>
+        <v>57819</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>89808</v>
+        <v>90207</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1492685100591893</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1182953944508726</v>
+        <v>0.1179439817901737</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.183197123308661</v>
+        <v>0.1840103936735728</v>
       </c>
     </row>
     <row r="9">
@@ -3994,19 +3994,19 @@
         <v>60274</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>45527</v>
+        <v>46795</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>74258</v>
+        <v>75425</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2477987597876721</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1871709800694927</v>
+        <v>0.1923841926572392</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3052899020072956</v>
+        <v>0.3100904620847104</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>40</v>
@@ -4015,19 +4015,19 @@
         <v>42456</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>32398</v>
+        <v>31583</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>57216</v>
+        <v>54943</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2244247520148593</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1712562604050861</v>
+        <v>0.1669527996680745</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3024467512134058</v>
+        <v>0.2904313762091648</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>95</v>
@@ -4036,19 +4036,19 @@
         <v>102730</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>83016</v>
+        <v>85903</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>121872</v>
+        <v>122662</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2375728789499761</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1919831854750031</v>
+        <v>0.1986588582583047</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2818417832890227</v>
+        <v>0.2836679334415956</v>
       </c>
     </row>
     <row r="11">
@@ -4065,19 +4065,19 @@
         <v>43680</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>32026</v>
+        <v>32435</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>57148</v>
+        <v>59274</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1795773600073024</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1316640409893136</v>
+        <v>0.13334596132083</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.234947959141817</v>
+        <v>0.2436881796425328</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>42</v>
@@ -4086,19 +4086,19 @@
         <v>43259</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>32239</v>
+        <v>32326</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>55311</v>
+        <v>54984</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2286685453970579</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1704178260410516</v>
+        <v>0.1708759010674967</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2923778510941922</v>
+        <v>0.2906494401075012</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>82</v>
@@ -4107,19 +4107,19 @@
         <v>86938</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>71479</v>
+        <v>71377</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>105290</v>
+        <v>105910</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.201054233672108</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1653033495659965</v>
+        <v>0.1650673811429402</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2434937399797716</v>
+        <v>0.2449278618183234</v>
       </c>
     </row>
     <row r="12">
@@ -4136,19 +4136,19 @@
         <v>67114</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>53181</v>
+        <v>52444</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>83377</v>
+        <v>81781</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2759192200884255</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2186381847847937</v>
+        <v>0.2156079578009976</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3427796173590034</v>
+        <v>0.3362210352502633</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>59</v>
@@ -4157,19 +4157,19 @@
         <v>61718</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>48350</v>
+        <v>50108</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>76371</v>
+        <v>75576</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3262463309501278</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2555808428728701</v>
+        <v>0.2648751991907666</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4037046768806882</v>
+        <v>0.3995024096547051</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>121</v>
@@ -4178,19 +4178,19 @@
         <v>128832</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>109779</v>
+        <v>110268</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>149609</v>
+        <v>148352</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2979367980570561</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.253874262804181</v>
+        <v>0.2550065033351837</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3459874740130343</v>
+        <v>0.3430799066338006</v>
       </c>
     </row>
     <row r="13">
@@ -4207,19 +4207,19 @@
         <v>44978</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>33225</v>
+        <v>33765</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>59062</v>
+        <v>58326</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1849128429172556</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1365966410811979</v>
+        <v>0.1388136864009398</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2428152617011832</v>
+        <v>0.2397919917662613</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>23</v>
@@ -4228,19 +4228,19 @@
         <v>23019</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>15378</v>
+        <v>15384</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>33870</v>
+        <v>33499</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1216795825719134</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08129199297320354</v>
+        <v>0.081321475547955</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1790412414445918</v>
+        <v>0.1770810688534428</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>64</v>
@@ -4249,19 +4249,19 @@
         <v>67996</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>52500</v>
+        <v>53071</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>84740</v>
+        <v>83442</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1572489612434169</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1214110394817143</v>
+        <v>0.1227327282472448</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1959698923357757</v>
+        <v>0.1929691883498673</v>
       </c>
     </row>
     <row r="14">
@@ -4278,19 +4278,19 @@
         <v>27192</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>18639</v>
+        <v>17705</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>39542</v>
+        <v>38595</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1117918171993445</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.07662958016659244</v>
+        <v>0.07278731432511557</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.162566914847193</v>
+        <v>0.15867076990862</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>18</v>
@@ -4299,19 +4299,19 @@
         <v>18725</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>11494</v>
+        <v>11506</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>28262</v>
+        <v>28071</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0989807890660416</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06075988326974389</v>
+        <v>0.06081992452592825</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1493927847741189</v>
+        <v>0.1483838471965549</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>43</v>
@@ -4320,19 +4320,19 @@
         <v>45917</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>33700</v>
+        <v>33717</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>60397</v>
+        <v>61110</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1061871280774429</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.07793411235561964</v>
+        <v>0.07797476890648759</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1396734929009197</v>
+        <v>0.141324242955562</v>
       </c>
     </row>
     <row r="15">
@@ -4424,19 +4424,19 @@
         <v>41451</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>30655</v>
+        <v>30085</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>54880</v>
+        <v>54266</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1916136884622009</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1417095616877895</v>
+        <v>0.1390752236958723</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2536904355720107</v>
+        <v>0.2508544858523719</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>20</v>
@@ -4445,19 +4445,19 @@
         <v>18878</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>12390</v>
+        <v>12909</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>27077</v>
+        <v>27004</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2899025894523544</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1902709497130649</v>
+        <v>0.1982468978497935</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.415817602279452</v>
+        <v>0.414693165170831</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>59</v>
@@ -4466,19 +4466,19 @@
         <v>60329</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>47049</v>
+        <v>47271</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>76233</v>
+        <v>75155</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2143549280666965</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.167170359141577</v>
+        <v>0.1679585604663717</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2708656721718169</v>
+        <v>0.2670348815921486</v>
       </c>
     </row>
     <row r="17">
@@ -4495,19 +4495,19 @@
         <v>34580</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>24098</v>
+        <v>25306</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>46873</v>
+        <v>46659</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1598529375866687</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1113970634739994</v>
+        <v>0.1169828065566329</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2166804395241558</v>
+        <v>0.2156898326935407</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>12</v>
@@ -4516,19 +4516,19 @@
         <v>12665</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>7367</v>
+        <v>6610</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>21394</v>
+        <v>20472</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1944883603765449</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1131327916530329</v>
+        <v>0.1015006928203574</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3285385160994794</v>
+        <v>0.3143897524640601</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>45</v>
@@ -4537,19 +4537,19 @@
         <v>47245</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>35231</v>
+        <v>35538</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>59446</v>
+        <v>61822</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1678665834869977</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1251807450832457</v>
+        <v>0.1262712247669336</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2112197087696775</v>
+        <v>0.2196623050751703</v>
       </c>
     </row>
     <row r="18">
@@ -4566,19 +4566,19 @@
         <v>72612</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>59289</v>
+        <v>58716</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>88114</v>
+        <v>87243</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.335660477977596</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2740739064248595</v>
+        <v>0.2714255056442512</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4073226097258179</v>
+        <v>0.403295980696208</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>13</v>
@@ -4587,19 +4587,19 @@
         <v>13868</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>8068</v>
+        <v>7734</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>21926</v>
+        <v>22484</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2129727244398495</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1238911326693853</v>
+        <v>0.1187737500063768</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3367096160254026</v>
+        <v>0.3452775118046549</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>82</v>
@@ -4608,19 +4608,19 @@
         <v>86480</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>71904</v>
+        <v>72519</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>104693</v>
+        <v>103837</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3072740419544819</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2554828703170345</v>
+        <v>0.257668767544023</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3719875153266302</v>
+        <v>0.3689446753074291</v>
       </c>
     </row>
     <row r="19">
@@ -4637,19 +4637,19 @@
         <v>43462</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>31785</v>
+        <v>31096</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>56207</v>
+        <v>57512</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2009110367133037</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1469308063420396</v>
+        <v>0.1437454054051215</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2598286874340726</v>
+        <v>0.2658581861481241</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>14</v>
@@ -4658,19 +4658,19 @@
         <v>14743</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>8340</v>
+        <v>8214</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>22293</v>
+        <v>21547</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2264101884272202</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.128068605133008</v>
+        <v>0.1261473257373113</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3423532083748425</v>
+        <v>0.3308943045755016</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>54</v>
@@ -4679,19 +4679,19 @@
         <v>58205</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>46203</v>
+        <v>44165</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>75529</v>
+        <v>73528</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2068108108790119</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1641631910823259</v>
+        <v>0.1569231527300513</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2683616640143094</v>
+        <v>0.2612551953955791</v>
       </c>
     </row>
     <row r="20">
@@ -4708,19 +4708,19 @@
         <v>24220</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>16027</v>
+        <v>15412</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>34830</v>
+        <v>35198</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1119618592602306</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07408844973513251</v>
+        <v>0.07124390011811808</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1610071135034389</v>
+        <v>0.1627110377897262</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>5</v>
@@ -4729,19 +4729,19 @@
         <v>4964</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1871</v>
+        <v>1908</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>10451</v>
+        <v>10856</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.07622613730403097</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02872830057917159</v>
+        <v>0.02929402769518994</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1604859834505359</v>
+        <v>0.1667160657382198</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>27</v>
@@ -4750,19 +4750,19 @@
         <v>29184</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>19890</v>
+        <v>19606</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>40818</v>
+        <v>40391</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1036936356128121</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.07067032512752028</v>
+        <v>0.06966114772769169</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.145030019609374</v>
+        <v>0.1435134932417246</v>
       </c>
     </row>
     <row r="21">
@@ -4854,19 +4854,19 @@
         <v>114630</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>95745</v>
+        <v>96024</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>133781</v>
+        <v>133009</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2350423260473035</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1963191690358809</v>
+        <v>0.1968906374490922</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2743104587345951</v>
+        <v>0.2727267323732921</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>79</v>
@@ -4875,19 +4875,19 @@
         <v>81558</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>66338</v>
+        <v>66949</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>98907</v>
+        <v>98289</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2234811506344993</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1817776037100227</v>
+        <v>0.1834499198371069</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.271021042666112</v>
+        <v>0.2693273412318568</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>188</v>
@@ -4896,19 +4896,19 @@
         <v>196188</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>172019</v>
+        <v>171279</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>224143</v>
+        <v>222156</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2300939980564808</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2017477195159108</v>
+        <v>0.2008798070737949</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2628799955995283</v>
+        <v>0.2605498690528681</v>
       </c>
     </row>
     <row r="23">
@@ -4925,19 +4925,19 @@
         <v>76176</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>61053</v>
+        <v>61442</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>94514</v>
+        <v>94886</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1561940577339872</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1251845416010393</v>
+        <v>0.1259824502857932</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.193794416394489</v>
+        <v>0.1945579175675632</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>67</v>
@@ -4946,19 +4946,19 @@
         <v>67295</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>53334</v>
+        <v>53828</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>81562</v>
+        <v>82568</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1843978915698746</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1461432054326213</v>
+        <v>0.1474979135578932</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2234934963274632</v>
+        <v>0.226250602717745</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>140</v>
@@ -4967,19 +4967,19 @@
         <v>143470</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>123276</v>
+        <v>123087</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>167200</v>
+        <v>165667</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1682656521381398</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1445809345959601</v>
+        <v>0.1443592923691787</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1960964102461929</v>
+        <v>0.1942988493161418</v>
       </c>
     </row>
     <row r="24">
@@ -4996,19 +4996,19 @@
         <v>160252</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>140053</v>
+        <v>139869</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>183690</v>
+        <v>183466</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3285859928563532</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2871705380398653</v>
+        <v>0.2867920033072427</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3766451467791134</v>
+        <v>0.3761860572510519</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>102</v>
@@ -5017,19 +5017,19 @@
         <v>100468</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>85090</v>
+        <v>84791</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>119011</v>
+        <v>117997</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2752980792548967</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2331611314439152</v>
+        <v>0.2323417183541231</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3261090122513151</v>
+        <v>0.3233311707719037</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>253</v>
@@ -5038,19 +5038,19 @@
         <v>260719</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>232942</v>
+        <v>233263</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>287081</v>
+        <v>289621</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3057780978948605</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2731998928866803</v>
+        <v>0.2735766223056061</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3366956073416288</v>
+        <v>0.3396743017153902</v>
       </c>
     </row>
     <row r="25">
@@ -5067,19 +5067,19 @@
         <v>91741</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>74502</v>
+        <v>75014</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>109084</v>
+        <v>110794</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1881094791979834</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1527625290705972</v>
+        <v>0.1538109748593138</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2236689434637889</v>
+        <v>0.2271752475583064</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>72</v>
@@ -5088,19 +5088,19 @@
         <v>75001</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>60411</v>
+        <v>59634</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>90908</v>
+        <v>91879</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2055153362061574</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1655361735062105</v>
+        <v>0.1634059979930945</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.249103844476618</v>
+        <v>0.2517641223937029</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>160</v>
@@ -5109,19 +5109,19 @@
         <v>166742</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>145271</v>
+        <v>143297</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>190447</v>
+        <v>188868</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1955594041720838</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1703775144078238</v>
+        <v>0.1680623431358073</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2233607027371038</v>
+        <v>0.2215086085362194</v>
       </c>
     </row>
     <row r="26">
@@ -5138,19 +5138,19 @@
         <v>44902</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>32787</v>
+        <v>32511</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>59469</v>
+        <v>59758</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.09206814416437273</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.06722811117951226</v>
+        <v>0.06666160121985609</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1219380999584826</v>
+        <v>0.1225309282173397</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>40</v>
@@ -5159,19 +5159,19 @@
         <v>40621</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>29275</v>
+        <v>28747</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>52060</v>
+        <v>53947</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1113075423345721</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.08021744681575911</v>
+        <v>0.07877212270921531</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1426530650757898</v>
+        <v>0.1478242408019671</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>82</v>
@@ -5180,19 +5180,19 @@
         <v>85522</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>69311</v>
+        <v>69552</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>107604</v>
+        <v>105504</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1003028477384351</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.08128914270778273</v>
+        <v>0.08157221183686472</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1262004437087922</v>
+        <v>0.1237381296705635</v>
       </c>
     </row>
     <row r="27">
@@ -5284,19 +5284,19 @@
         <v>64797</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>50983</v>
+        <v>51094</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>79754</v>
+        <v>78035</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3356949115557065</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.264129102172577</v>
+        <v>0.2647044345161056</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4131847515937257</v>
+        <v>0.4042814075123821</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>66</v>
@@ -5305,19 +5305,19 @@
         <v>68581</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>55526</v>
+        <v>55419</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>81531</v>
+        <v>83520</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3470383498070193</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2809747138243111</v>
+        <v>0.280431544048672</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4125670956839236</v>
+        <v>0.4226313564128851</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>124</v>
@@ -5326,19 +5326,19 @@
         <v>133378</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>115507</v>
+        <v>113846</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>152492</v>
+        <v>152406</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3414333788280307</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2956866902468835</v>
+        <v>0.2914351234677676</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.390364566811829</v>
+        <v>0.390143554385227</v>
       </c>
     </row>
     <row r="29">
@@ -5355,19 +5355,19 @@
         <v>37971</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>27947</v>
+        <v>28822</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>50922</v>
+        <v>50168</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1967192623061506</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1447851833050652</v>
+        <v>0.1493201576223821</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2638133166682711</v>
+        <v>0.2599090020836688</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>32</v>
@@ -5376,19 +5376,19 @@
         <v>33049</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>23931</v>
+        <v>22844</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>44830</v>
+        <v>44847</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.167234848672734</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.121094938145122</v>
+        <v>0.1155972759813725</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2268520311093776</v>
+        <v>0.2269351425553095</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>68</v>
@@ -5397,19 +5397,19 @@
         <v>71020</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>57272</v>
+        <v>55772</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>87551</v>
+        <v>86901</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1818035604765531</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1466106633612438</v>
+        <v>0.14277035717664</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2241213677943523</v>
+        <v>0.2224568351036965</v>
       </c>
     </row>
     <row r="30">
@@ -5426,19 +5426,19 @@
         <v>47769</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>37386</v>
+        <v>36199</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>62130</v>
+        <v>61244</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2474791220477419</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1936880860965119</v>
+        <v>0.1875375521335678</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3218804201486624</v>
+        <v>0.3172887643874899</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>59</v>
@@ -5447,19 +5447,19 @@
         <v>59586</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>47742</v>
+        <v>47290</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>72839</v>
+        <v>73547</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3015216344204301</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2415856226954489</v>
+        <v>0.2392964971129467</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3685804796634367</v>
+        <v>0.3721677211461569</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>101</v>
@@ -5468,19 +5468,19 @@
         <v>107355</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>89549</v>
+        <v>90314</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>126476</v>
+        <v>126085</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2748183803655592</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2292360743285695</v>
+        <v>0.2311962062162248</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3237672380961524</v>
+        <v>0.3227642595859856</v>
       </c>
     </row>
     <row r="31">
@@ -5497,19 +5497,19 @@
         <v>25912</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>17189</v>
+        <v>17807</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>35819</v>
+        <v>36512</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1342431954162522</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.08905191596421778</v>
+        <v>0.09225257904863648</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1855682732443229</v>
+        <v>0.1891587980675553</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>29</v>
@@ -5518,19 +5518,19 @@
         <v>30387</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>21340</v>
+        <v>20579</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>42004</v>
+        <v>40978</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1537675209840454</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1079861622213273</v>
+        <v>0.1041346782437918</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2125490149628778</v>
+        <v>0.2073582297723683</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>54</v>
@@ -5539,19 +5539,19 @@
         <v>56299</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>43837</v>
+        <v>43607</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>70964</v>
+        <v>72233</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1441202451081318</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1122193406335282</v>
+        <v>0.1116297851802613</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1816614284020575</v>
+        <v>0.1849097466304807</v>
       </c>
     </row>
     <row r="32">
@@ -5568,19 +5568,19 @@
         <v>16574</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>10051</v>
+        <v>9236</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>26298</v>
+        <v>25702</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.08586350867414889</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.05207173045884939</v>
+        <v>0.04785198053723293</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1362414209902578</v>
+        <v>0.1331582554979387</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>6</v>
@@ -5589,19 +5589,19 @@
         <v>6015</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2178</v>
+        <v>2823</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>12279</v>
+        <v>12384</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.03043764611577128</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01102102911545486</v>
+        <v>0.01428494498093655</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.06213564752760044</v>
+        <v>0.06266447159235528</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>21</v>
@@ -5610,19 +5610,19 @@
         <v>22589</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>14170</v>
+        <v>14635</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>32761</v>
+        <v>32723</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.05782443522172512</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.03627445519821848</v>
+        <v>0.03746462940344802</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.08386513934959167</v>
+        <v>0.08376797621672588</v>
       </c>
     </row>
     <row r="33">
@@ -5714,19 +5714,19 @@
         <v>327806</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>295739</v>
+        <v>298787</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>359498</v>
+        <v>366090</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2314462774099774</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2088058117873096</v>
+        <v>0.2109573479358015</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2538223645943802</v>
+        <v>0.2584769372453822</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>253</v>
@@ -5735,19 +5735,19 @@
         <v>260454</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>235405</v>
+        <v>232895</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>287947</v>
+        <v>288278</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2526155702902456</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2283206676227612</v>
+        <v>0.2258862136854321</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2792811033612955</v>
+        <v>0.2796018339595133</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>557</v>
@@ -5756,19 +5756,19 @@
         <v>588260</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>547714</v>
+        <v>544024</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>635490</v>
+        <v>633457</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2403644990284239</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.223797409576093</v>
+        <v>0.2222897634295004</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2596631352082883</v>
+        <v>0.258832343896268</v>
       </c>
     </row>
     <row r="35">
@@ -5785,19 +5785,19 @@
         <v>244539</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>216352</v>
+        <v>214765</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>277737</v>
+        <v>272105</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1726558091181139</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1527546199995671</v>
+        <v>0.1516343172124934</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1960955147887831</v>
+        <v>0.1921189619949118</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>190</v>
@@ -5806,19 +5806,19 @@
         <v>194030</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>169953</v>
+        <v>170950</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>218538</v>
+        <v>224063</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1881908502363522</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1648385041266444</v>
+        <v>0.165804775363372</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2119606892420311</v>
+        <v>0.2173199697641217</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>419</v>
@@ -5827,19 +5827,19 @@
         <v>438569</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>399953</v>
+        <v>401621</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>478900</v>
+        <v>480611</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.179200427321836</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1634218054742192</v>
+        <v>0.1641034892389279</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1956799568722131</v>
+        <v>0.1963789174260306</v>
       </c>
     </row>
     <row r="36">
@@ -5856,19 +5856,19 @@
         <v>426887</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>389511</v>
+        <v>391689</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>462794</v>
+        <v>463272</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3014024140017686</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2750130688084947</v>
+        <v>0.2765509700683779</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3267539252927733</v>
+        <v>0.3270913127634762</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>297</v>
@@ -5877,19 +5877,19 @@
         <v>300983</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>270326</v>
+        <v>272503</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>330610</v>
+        <v>330290</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2919246795576577</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2621902589182921</v>
+        <v>0.2643021432358986</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3206601406070673</v>
+        <v>0.3203495186167628</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>692</v>
@@ -5898,19 +5898,19 @@
         <v>727870</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>684615</v>
+        <v>685552</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>775452</v>
+        <v>773432</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2974096242240737</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2797356811553872</v>
+        <v>0.2801183096981892</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3168517040253353</v>
+        <v>0.3160263375519546</v>
       </c>
     </row>
     <row r="37">
@@ -5927,19 +5927,19 @@
         <v>257109</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>227805</v>
+        <v>223879</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>287463</v>
+        <v>286813</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1815311899661768</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1608408595389476</v>
+        <v>0.1580692590286832</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2029625542876175</v>
+        <v>0.2025033376148514</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>173</v>
@@ -5948,19 +5948,19 @@
         <v>179170</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>154229</v>
+        <v>155376</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>204216</v>
+        <v>203776</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1737783179287035</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1495873854479243</v>
+        <v>0.150700174221847</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1980699231111554</v>
+        <v>0.1976430617684364</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>415</v>
@@ -5969,19 +5969,19 @@
         <v>436280</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>398353</v>
+        <v>396428</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>474746</v>
+        <v>474839</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1782650520086785</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1627681216098846</v>
+        <v>0.161981389956552</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1939824518003895</v>
+        <v>0.1940204451962885</v>
       </c>
     </row>
     <row r="38">
@@ -5998,19 +5998,19 @@
         <v>159996</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>136487</v>
+        <v>137326</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>184460</v>
+        <v>185706</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1129643095039631</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.09636586941005647</v>
+        <v>0.09695873126030964</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1302377063382563</v>
+        <v>0.1311171777921776</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>94</v>
@@ -6019,19 +6019,19 @@
         <v>96392</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>78262</v>
+        <v>78284</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>117244</v>
+        <v>115431</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.09349058198704097</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.07590663958414659</v>
+        <v>0.07592754621210517</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1137156866784726</v>
+        <v>0.1119572678413925</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>241</v>
@@ -6040,19 +6040,19 @@
         <v>256387</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>227148</v>
+        <v>227590</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>289754</v>
+        <v>288852</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1047603974169879</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.09281316124035631</v>
+        <v>0.09299400539530436</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1183943119319781</v>
+        <v>0.1180257938272274</v>
       </c>
     </row>
     <row r="39">
@@ -6385,19 +6385,19 @@
         <v>29702</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>19737</v>
+        <v>20085</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>40989</v>
+        <v>42035</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.301831097487001</v>
+        <v>0.3018310974870011</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2005705003367274</v>
+        <v>0.2041072834282235</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4165371725814347</v>
+        <v>0.4271590896815347</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>32</v>
@@ -6406,19 +6406,19 @@
         <v>25566</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>18758</v>
+        <v>18314</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>33974</v>
+        <v>33512</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2988169693874606</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2192390576908101</v>
+        <v>0.2140585578021905</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3970921471111835</v>
+        <v>0.3916893375737756</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>54</v>
@@ -6427,19 +6427,19 @@
         <v>55268</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>42768</v>
+        <v>42226</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>69562</v>
+        <v>69501</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.3004292788623436</v>
+        <v>0.3004292788623435</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2324822904706126</v>
+        <v>0.2295387498231092</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3781318078601332</v>
+        <v>0.3778010326109115</v>
       </c>
     </row>
     <row r="5">
@@ -6456,19 +6456,19 @@
         <v>20468</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>12771</v>
+        <v>12527</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>29401</v>
+        <v>30470</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2079959917360669</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1297791096204614</v>
+        <v>0.1273045393862465</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2987717303621794</v>
+        <v>0.3096407587619834</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>18</v>
@@ -6477,19 +6477,19 @@
         <v>14635</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>9102</v>
+        <v>9012</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>21586</v>
+        <v>22012</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.1710577288530296</v>
+        <v>0.1710577288530295</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1063822694902074</v>
+        <v>0.1053375368162132</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2522938129835561</v>
+        <v>0.2572737645038182</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>37</v>
@@ -6498,19 +6498,19 @@
         <v>35103</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>24878</v>
+        <v>25306</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>46024</v>
+        <v>46158</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1908166472749496</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1352371189346365</v>
+        <v>0.1375603492104131</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2501816627842217</v>
+        <v>0.2509130198764024</v>
       </c>
     </row>
     <row r="6">
@@ -6527,19 +6527,19 @@
         <v>23031</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14982</v>
+        <v>14797</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>32904</v>
+        <v>33608</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2340429416090761</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1522441401824116</v>
+        <v>0.1503701329923089</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3343682442200309</v>
+        <v>0.3415228319962551</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>30</v>
@@ -6548,19 +6548,19 @@
         <v>21896</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>15466</v>
+        <v>15646</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>29353</v>
+        <v>29603</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2559161498614211</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1807705218220277</v>
+        <v>0.182872720113074</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3430739875036801</v>
+        <v>0.3460036642744194</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>51</v>
@@ -6569,19 +6569,19 @@
         <v>44926</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>34161</v>
+        <v>34635</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>56701</v>
+        <v>57504</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2442157908366273</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1856954633226966</v>
+        <v>0.1882750475787922</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3082197238572515</v>
+        <v>0.3125877884341325</v>
       </c>
     </row>
     <row r="7">
@@ -6598,19 +6598,19 @@
         <v>12847</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7233</v>
+        <v>6729</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>21818</v>
+        <v>21554</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1305472803544577</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07350699193964549</v>
+        <v>0.06838525000392695</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2217184844978975</v>
+        <v>0.2190319133870066</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>16</v>
@@ -6619,19 +6619,19 @@
         <v>12074</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7291</v>
+        <v>6427</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>19445</v>
+        <v>18693</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1411233451952019</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08522215483882925</v>
+        <v>0.07511795948256246</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2272735644772448</v>
+        <v>0.2184806093567107</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>28</v>
@@ -6640,19 +6640,19 @@
         <v>24921</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>16678</v>
+        <v>17126</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>34734</v>
+        <v>35914</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1354660244090324</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09065798616035853</v>
+        <v>0.09309570921260678</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1888108768616753</v>
+        <v>0.1952243699412835</v>
       </c>
     </row>
     <row r="8">
@@ -6669,19 +6669,19 @@
         <v>12358</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5693</v>
+        <v>5181</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>27813</v>
+        <v>24653</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1255826888133983</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0578568476548437</v>
+        <v>0.05264479401463674</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.282642521438327</v>
+        <v>0.2505288147129426</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>13</v>
@@ -6690,19 +6690,19 @@
         <v>11387</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>6395</v>
+        <v>6668</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>18357</v>
+        <v>18521</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1330858067028869</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.07474060126399346</v>
+        <v>0.07793984411797947</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2145576806770262</v>
+        <v>0.2164685614393771</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>20</v>
@@ -6711,19 +6711,19 @@
         <v>23744</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>14804</v>
+        <v>14638</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>38322</v>
+        <v>37893</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.1290722586170474</v>
+        <v>0.1290722586170473</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.08047059467004503</v>
+        <v>0.07957136816254334</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.208315056769366</v>
+        <v>0.2059808477705658</v>
       </c>
     </row>
     <row r="9">
@@ -6815,19 +6815,19 @@
         <v>26243</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>18655</v>
+        <v>18065</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>35532</v>
+        <v>35128</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.3567337627356548</v>
+        <v>0.3567337627356549</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2535756113029272</v>
+        <v>0.2455623845421622</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4830013255351737</v>
+        <v>0.4774973873242576</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>36</v>
@@ -6836,19 +6836,19 @@
         <v>28117</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>21225</v>
+        <v>20929</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>35840</v>
+        <v>36279</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.4206512303453342</v>
+        <v>0.420651230345334</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.317550101878376</v>
+        <v>0.3131191448577293</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5362007998620301</v>
+        <v>0.5427716323876446</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>59</v>
@@ -6857,19 +6857,19 @@
         <v>54360</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>42829</v>
+        <v>44046</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>66020</v>
+        <v>66715</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.3871619268232412</v>
+        <v>0.3871619268232411</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3050348739902315</v>
+        <v>0.3137035009005747</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4702061247721873</v>
+        <v>0.475154023614332</v>
       </c>
     </row>
     <row r="11">
@@ -6886,19 +6886,19 @@
         <v>8650</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4220</v>
+        <v>4252</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>15431</v>
+        <v>15991</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1175852187471609</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.05735792915851848</v>
+        <v>0.05779688910440953</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2097527001582376</v>
+        <v>0.2173655944240375</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>15</v>
@@ -6907,19 +6907,19 @@
         <v>10103</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>6124</v>
+        <v>6241</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>16159</v>
+        <v>15748</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.1511476187783633</v>
+        <v>0.1511476187783632</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.09161843815915451</v>
+        <v>0.09336614085613451</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2417598021135055</v>
+        <v>0.2356090262109498</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>23</v>
@@ -6928,19 +6928,19 @@
         <v>18753</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>12222</v>
+        <v>12096</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>28615</v>
+        <v>28474</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1335627324615495</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.08704387539734723</v>
+        <v>0.08614786074923882</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2037979303735585</v>
+        <v>0.2027996473434308</v>
       </c>
     </row>
     <row r="12">
@@ -6957,19 +6957,19 @@
         <v>27017</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>18971</v>
+        <v>18332</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>36717</v>
+        <v>36001</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3672504913791658</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2578828757438674</v>
+        <v>0.2491922744738555</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4990972398280576</v>
+        <v>0.4893722544295338</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>16</v>
@@ -6978,19 +6978,19 @@
         <v>13104</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>7648</v>
+        <v>7450</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>19656</v>
+        <v>20081</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1960491906110199</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1144172215881404</v>
+        <v>0.1114530370109317</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.29406597389566</v>
+        <v>0.3004275780200195</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>38</v>
@@ -6999,19 +6999,19 @@
         <v>40121</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>28910</v>
+        <v>29144</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>52668</v>
+        <v>51086</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.2857494328016748</v>
+        <v>0.2857494328016747</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2059037805508017</v>
+        <v>0.2075712475533536</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3751077309210527</v>
+        <v>0.3638390310890928</v>
       </c>
     </row>
     <row r="13">
@@ -7028,19 +7028,19 @@
         <v>6300</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2486</v>
+        <v>2254</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13403</v>
+        <v>13775</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.08563946614672449</v>
+        <v>0.08563946614672452</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03378927142831922</v>
+        <v>0.0306349466283911</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1821895729341526</v>
+        <v>0.1872402976792482</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -7049,19 +7049,19 @@
         <v>5162</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2065</v>
+        <v>2176</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>9953</v>
+        <v>10121</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.0772329048103165</v>
+        <v>0.07723290481031647</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0308992216035335</v>
+        <v>0.03255353739154767</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1489121406510208</v>
+        <v>0.1514258180770746</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>12</v>
@@ -7070,19 +7070,19 @@
         <v>11462</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6126</v>
+        <v>6303</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>19131</v>
+        <v>19175</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08163748926430736</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04362694914680763</v>
+        <v>0.04489444328627582</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1362535620262126</v>
+        <v>0.1365676499774655</v>
       </c>
     </row>
     <row r="14">
@@ -7099,19 +7099,19 @@
         <v>5355</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2030</v>
+        <v>2082</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>11842</v>
+        <v>11663</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.07279106099129405</v>
+        <v>0.07279106099129407</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02759312247467929</v>
+        <v>0.0283065713366908</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1609764603682099</v>
+        <v>0.1585411951879413</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>11</v>
@@ -7120,19 +7120,19 @@
         <v>10355</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5589</v>
+        <v>5282</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>18204</v>
+        <v>17427</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1549190554549663</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.08361277653853728</v>
+        <v>0.07902115458792129</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2723504574714968</v>
+        <v>0.2607209767208111</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>16</v>
@@ -7141,19 +7141,19 @@
         <v>15710</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>9616</v>
+        <v>9672</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>24904</v>
+        <v>25111</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1118884186492274</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.06848990771922116</v>
+        <v>0.0688873385124973</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1773713294787861</v>
+        <v>0.1788421526802831</v>
       </c>
     </row>
     <row r="15">
@@ -7245,19 +7245,19 @@
         <v>22452</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>13763</v>
+        <v>13894</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>31821</v>
+        <v>31871</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.3239028246857323</v>
+        <v>0.3239028246857322</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1985427189527603</v>
+        <v>0.2004411021582961</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4590643421585857</v>
+        <v>0.4597750366829834</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -7266,19 +7266,19 @@
         <v>6125</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2709</v>
+        <v>2885</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10785</v>
+        <v>11257</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.2192878881325891</v>
+        <v>0.2192878881325892</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.096985429194467</v>
+        <v>0.1032861600160849</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3861300858620095</v>
+        <v>0.4030332628551529</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>27</v>
@@ -7287,19 +7287,19 @@
         <v>28577</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>19523</v>
+        <v>18906</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>39257</v>
+        <v>38316</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2938559976481859</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2007546747369198</v>
+        <v>0.1944087809551219</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4036737860559975</v>
+        <v>0.3939964476571124</v>
       </c>
     </row>
     <row r="17">
@@ -7316,19 +7316,19 @@
         <v>15397</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8760</v>
+        <v>8847</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>24730</v>
+        <v>24426</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2221274991223471</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1263701579294391</v>
+        <v>0.1276326193300845</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3567613181105657</v>
+        <v>0.3523748620531293</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>0</v>
@@ -7350,19 +7350,19 @@
         <v>15397</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>8444</v>
+        <v>8199</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>24718</v>
+        <v>24617</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1583294721262549</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08682632414530828</v>
+        <v>0.08430461927158273</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2541683345944045</v>
+        <v>0.2531332530094044</v>
       </c>
     </row>
     <row r="18">
@@ -7379,19 +7379,19 @@
         <v>13112</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6574</v>
+        <v>7437</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>23135</v>
+        <v>22724</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1891619050697094</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.09483399120726797</v>
+        <v>0.1072834449342236</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3337573447018741</v>
+        <v>0.3278283368330974</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>14</v>
@@ -7400,19 +7400,19 @@
         <v>12807</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>8266</v>
+        <v>7733</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>18695</v>
+        <v>18722</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.4585133583105946</v>
+        <v>0.4585133583105948</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.295951892575632</v>
+        <v>0.2768456550655095</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6693409056113065</v>
+        <v>0.6703001758725406</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>25</v>
@@ -7421,19 +7421,19 @@
         <v>25919</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>17424</v>
+        <v>17035</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>38158</v>
+        <v>36968</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.266523291450032</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.17916419081976</v>
+        <v>0.1751680899984969</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3923728628731328</v>
+        <v>0.3801383449347485</v>
       </c>
     </row>
     <row r="19">
@@ -7450,19 +7450,19 @@
         <v>11004</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4880</v>
+        <v>4422</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>22301</v>
+        <v>22670</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1587469304934892</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07039476042741336</v>
+        <v>0.06379070396688616</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.321715756871975</v>
+        <v>0.3270362807686013</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>6</v>
@@ -7471,19 +7471,19 @@
         <v>4038</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1559</v>
+        <v>1573</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>8334</v>
+        <v>8151</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1445881397815554</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05582254340398671</v>
+        <v>0.05630490150897934</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2983703302395804</v>
+        <v>0.2918110064635142</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>13</v>
@@ -7492,19 +7492,19 @@
         <v>15043</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>8081</v>
+        <v>8318</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>26544</v>
+        <v>25423</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1546803339863434</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08309618042493588</v>
+        <v>0.08553552875084457</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2729475368269303</v>
+        <v>0.2614195721534782</v>
       </c>
     </row>
     <row r="20">
@@ -7521,19 +7521,19 @@
         <v>7352</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2509</v>
+        <v>2408</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>17174</v>
+        <v>16015</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.1060608406287219</v>
+        <v>0.1060608406287218</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03619246922192441</v>
+        <v>0.0347387627340431</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2477505205944807</v>
+        <v>0.2310427477133772</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>6</v>
@@ -7542,19 +7542,19 @@
         <v>4961</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2032</v>
+        <v>1868</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>9836</v>
+        <v>9608</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.1776106137752607</v>
+        <v>0.1776106137752608</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0727508450970147</v>
+        <v>0.06688096772235895</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3521547494235156</v>
+        <v>0.3439807794663923</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>11</v>
@@ -7563,19 +7563,19 @@
         <v>12313</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>6106</v>
+        <v>6929</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>21699</v>
+        <v>22287</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1266109047891837</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.06279201766808365</v>
+        <v>0.0712544130283387</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2231248356595187</v>
+        <v>0.2291736175891869</v>
       </c>
     </row>
     <row r="21">
@@ -7667,19 +7667,19 @@
         <v>49977</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>37968</v>
+        <v>37627</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>63456</v>
+        <v>62762</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3735000431584144</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2837533458114905</v>
+        <v>0.2812039487886925</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4742334463628641</v>
+        <v>0.4690440066636772</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>40</v>
@@ -7688,19 +7688,19 @@
         <v>32419</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>23867</v>
+        <v>23833</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>42298</v>
+        <v>42314</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2811208235983019</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.206967463196361</v>
+        <v>0.206664337242758</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3667875482263945</v>
+        <v>0.3669228311421188</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>83</v>
@@ -7709,19 +7709,19 @@
         <v>82396</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>67532</v>
+        <v>68079</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>97307</v>
+        <v>98369</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3307380616681524</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2710733938354141</v>
+        <v>0.2732708003347107</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3905885803545677</v>
+        <v>0.3948544114219322</v>
       </c>
     </row>
     <row r="23">
@@ -7738,19 +7738,19 @@
         <v>12281</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>6228</v>
+        <v>6823</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>19047</v>
+        <v>21072</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.09178402475651293</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.04654113710749812</v>
+        <v>0.05099204323641064</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1423454584505013</v>
+        <v>0.157478369546261</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>30</v>
@@ -7759,19 +7759,19 @@
         <v>21966</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>15707</v>
+        <v>14902</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>30152</v>
+        <v>30040</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.190478696463374</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1362000437619659</v>
+        <v>0.1292222211739826</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2614647606792999</v>
+        <v>0.260492752874073</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>42</v>
@@ -7780,19 +7780,19 @@
         <v>34247</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>24829</v>
+        <v>24943</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>45300</v>
+        <v>45819</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1374694044859877</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.09966419739247158</v>
+        <v>0.1001204429441218</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1818344946092449</v>
+        <v>0.1839174633628456</v>
       </c>
     </row>
     <row r="24">
@@ -7809,19 +7809,19 @@
         <v>39425</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>27945</v>
+        <v>27474</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>51125</v>
+        <v>51976</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2946379868978773</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.208844730097503</v>
+        <v>0.2053261456364301</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3820749848116733</v>
+        <v>0.3884378185615056</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>44</v>
@@ -7830,19 +7830,19 @@
         <v>33129</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>24314</v>
+        <v>24197</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>41836</v>
+        <v>41253</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.28727536697489</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.210836603832762</v>
+        <v>0.2098226058019478</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3627775587537915</v>
+        <v>0.357726470491783</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>78</v>
@@ -7851,19 +7851,19 @@
         <v>72554</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>57928</v>
+        <v>59414</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>88668</v>
+        <v>89831</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2912298587672674</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2325222534144326</v>
+        <v>0.2384894349833738</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3559129347329156</v>
+        <v>0.3605802420931153</v>
       </c>
     </row>
     <row r="25">
@@ -7880,19 +7880,19 @@
         <v>19137</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>10947</v>
+        <v>11318</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>30766</v>
+        <v>32174</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1430160067790573</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.08180966821690389</v>
+        <v>0.08458409451328945</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2299254163852073</v>
+        <v>0.2404465579028748</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>22</v>
@@ -7901,19 +7901,19 @@
         <v>18317</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>11676</v>
+        <v>12109</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>26565</v>
+        <v>27004</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1588378609820247</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1012455909095169</v>
+        <v>0.1050020959838366</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2303569678829693</v>
+        <v>0.2341630720894677</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>37</v>
@@ -7922,19 +7922,19 @@
         <v>37454</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>26247</v>
+        <v>26316</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>51610</v>
+        <v>50336</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1503398815616176</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1053547061083762</v>
+        <v>0.1056326469693758</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2071633730937951</v>
+        <v>0.2020477436748148</v>
       </c>
     </row>
     <row r="26">
@@ -7951,19 +7951,19 @@
         <v>12988</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>6734</v>
+        <v>6955</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>23422</v>
+        <v>22995</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.0970619384081382</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.05032306432940488</v>
+        <v>0.05198023781011815</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.175038702551565</v>
+        <v>0.1718534783382294</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>11</v>
@@ -7972,19 +7972,19 @@
         <v>9489</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>5045</v>
+        <v>4892</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>16738</v>
+        <v>16009</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.08228725198140929</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.0437512896596885</v>
+        <v>0.04242013125020479</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.145145695297726</v>
+        <v>0.1388191488856639</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>21</v>
@@ -7993,19 +7993,19 @@
         <v>22477</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>14903</v>
+        <v>14193</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>34717</v>
+        <v>34752</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.09022279351697479</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.05982015179404401</v>
+        <v>0.05697021520620162</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1393539313483358</v>
+        <v>0.1394949099570194</v>
       </c>
     </row>
     <row r="27">
@@ -8097,19 +8097,19 @@
         <v>40641</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>28386</v>
+        <v>29230</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>53027</v>
+        <v>54395</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.4398648089373038</v>
+        <v>0.439864808937304</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3072281982735132</v>
+        <v>0.3163539120639119</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5739122681547059</v>
+        <v>0.5887189873355347</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>39</v>
@@ -8118,19 +8118,19 @@
         <v>31257</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>23726</v>
+        <v>23569</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>39998</v>
+        <v>39532</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.3640997425285863</v>
+        <v>0.3640997425285864</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2763719150933178</v>
+        <v>0.2745433053006526</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4659203939700856</v>
+        <v>0.460499024511748</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>64</v>
@@ -8139,19 +8139,19 @@
         <v>71898</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>56029</v>
+        <v>56578</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>87558</v>
+        <v>88207</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.4033738729103229</v>
+        <v>0.403373872910323</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3143404871556411</v>
+        <v>0.3174206278428392</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4912283126478409</v>
+        <v>0.4948693512406086</v>
       </c>
     </row>
     <row r="29">
@@ -8168,19 +8168,19 @@
         <v>9296</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3942</v>
+        <v>4232</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>17034</v>
+        <v>17340</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1006076988226785</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04266468585319171</v>
+        <v>0.04580760186863837</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1843588432569928</v>
+        <v>0.187677767956293</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>20</v>
@@ -8189,19 +8189,19 @@
         <v>16394</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>10481</v>
+        <v>10276</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>23988</v>
+        <v>23732</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1909705773883145</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1220851087047684</v>
+        <v>0.1197044920886973</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2794288611933026</v>
+        <v>0.2764403659685052</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>28</v>
@@ -8210,19 +8210,19 @@
         <v>25690</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>17508</v>
+        <v>17408</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>36924</v>
+        <v>36461</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1441294190197465</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.09822755287478961</v>
+        <v>0.09766677079908208</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2071577579230285</v>
+        <v>0.2045569980613267</v>
       </c>
     </row>
     <row r="30">
@@ -8239,19 +8239,19 @@
         <v>22389</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>14010</v>
+        <v>13494</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>31747</v>
+        <v>32297</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2423175393166034</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1516310302809219</v>
+        <v>0.1460498600170382</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3436057321182969</v>
+        <v>0.3495514736342645</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>31</v>
@@ -8260,19 +8260,19 @@
         <v>21822</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>15527</v>
+        <v>15674</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>29198</v>
+        <v>30428</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2541966003262015</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1808627502266585</v>
+        <v>0.1825798857741039</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3401181965287084</v>
+        <v>0.3544493780210834</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>51</v>
@@ -8281,19 +8281,19 @@
         <v>44211</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>33050</v>
+        <v>32879</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>55423</v>
+        <v>58248</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2480388839403042</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1854248064684882</v>
+        <v>0.1844643855399007</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3109416759788445</v>
+        <v>0.3267896862842872</v>
       </c>
     </row>
     <row r="31">
@@ -8310,19 +8310,19 @@
         <v>13757</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>6178</v>
+        <v>6039</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>26685</v>
+        <v>26446</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.1488920682352351</v>
+        <v>0.1488920682352352</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.06686168275367001</v>
+        <v>0.06536522871600667</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2888135283603157</v>
+        <v>0.2862239705285199</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>14</v>
@@ -8331,19 +8331,19 @@
         <v>10607</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>5853</v>
+        <v>6393</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>17218</v>
+        <v>16639</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1235601262879083</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.06818321443516114</v>
+        <v>0.07447167851974493</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2005690502280229</v>
+        <v>0.1938253683408561</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>23</v>
@@ -8352,19 +8352,19 @@
         <v>24364</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>15084</v>
+        <v>15433</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>38597</v>
+        <v>38884</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1366913757940451</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.08462690150880485</v>
+        <v>0.08658681455043984</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.216542742813622</v>
+        <v>0.2181511250106228</v>
       </c>
     </row>
     <row r="32">
@@ -8381,19 +8381,19 @@
         <v>6312</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2361</v>
+        <v>2169</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>13610</v>
+        <v>14319</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.06831788468817891</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.02555464990951528</v>
+        <v>0.02347629262201728</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1473064830905685</v>
+        <v>0.1549731495779555</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>8</v>
@@ -8402,19 +8402,19 @@
         <v>5767</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2814</v>
+        <v>2795</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>10530</v>
+        <v>10371</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.06717295346898935</v>
+        <v>0.06717295346898937</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.03278491242958514</v>
+        <v>0.0325523369451052</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1226549983583984</v>
+        <v>0.1208039586864434</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>13</v>
@@ -8423,19 +8423,19 @@
         <v>12079</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>6760</v>
+        <v>6969</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>20409</v>
+        <v>21021</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.06776644833558131</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.03792735209018236</v>
+        <v>0.03910028054289526</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.114501725324502</v>
+        <v>0.1179361356062058</v>
       </c>
     </row>
     <row r="33">
@@ -8527,19 +8527,19 @@
         <v>169016</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>142938</v>
+        <v>146102</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>192845</v>
+        <v>195714</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.3615379272337936</v>
+        <v>0.3615379272337935</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.3057557617329052</v>
+        <v>0.3125229026060449</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.4125095830742112</v>
+        <v>0.4186481565023557</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>155</v>
@@ -8548,19 +8548,19 @@
         <v>123484</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>107896</v>
+        <v>108210</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>140546</v>
+        <v>140852</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.323681692369616</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2828227566205785</v>
+        <v>0.2836452226638745</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3684045881348618</v>
+        <v>0.3692083400332747</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>287</v>
@@ -8569,19 +8569,19 @@
         <v>292500</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>265870</v>
+        <v>262594</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>326911</v>
+        <v>320303</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.3445270111469083</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.313160416586082</v>
+        <v>0.3093024279435705</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3850586051677472</v>
+        <v>0.377275945357039</v>
       </c>
     </row>
     <row r="35">
@@ -8598,19 +8598,19 @@
         <v>66092</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>51337</v>
+        <v>51745</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>82082</v>
+        <v>84264</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1413770229270029</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1098135140808429</v>
+        <v>0.1106858214125654</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1755802082393682</v>
+        <v>0.180247063711594</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>83</v>
@@ -8619,19 +8619,19 @@
         <v>63099</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>51044</v>
+        <v>52082</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>76358</v>
+        <v>78249</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1653969368670002</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1338001471687325</v>
+        <v>0.136519883650346</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2001536525716023</v>
+        <v>0.2051094275611095</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>143</v>
@@ -8640,19 +8640,19 @@
         <v>129191</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>110212</v>
+        <v>109399</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>152265</v>
+        <v>149487</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1521705089119007</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1298151791371314</v>
+        <v>0.128858282007207</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1793483589493352</v>
+        <v>0.1760763052219589</v>
       </c>
     </row>
     <row r="36">
@@ -8669,19 +8669,19 @@
         <v>124974</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>103842</v>
+        <v>105898</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>147603</v>
+        <v>148221</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2673292904649979</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2221254689074166</v>
+        <v>0.2265237180808268</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.315733753678839</v>
+        <v>0.3170565905684913</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>135</v>
@@ -8690,19 +8690,19 @@
         <v>102757</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>89183</v>
+        <v>86515</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>121664</v>
+        <v>118843</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2693525251316491</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2337702908944588</v>
+        <v>0.2267776489674379</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3189114488385941</v>
+        <v>0.3115158934461822</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>243</v>
@@ -8711,19 +8711,19 @@
         <v>227731</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>203426</v>
+        <v>201309</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>255065</v>
+        <v>253816</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.268238442557433</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2396097372316597</v>
+        <v>0.2371156990979318</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3004343955188757</v>
+        <v>0.29896292568821</v>
       </c>
     </row>
     <row r="37">
@@ -8740,19 +8740,19 @@
         <v>63044</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>46789</v>
+        <v>48022</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>85625</v>
+        <v>82241</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1348563309417257</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1000855920463921</v>
+        <v>0.1027236905670857</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1831575775897983</v>
+        <v>0.1759191015891696</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>65</v>
@@ -8761,19 +8761,19 @@
         <v>50200</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>39284</v>
+        <v>39672</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>62617</v>
+        <v>64950</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.131585530914259</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1029728707179168</v>
+        <v>0.1039904819116383</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1641333317728144</v>
+        <v>0.1702495229035444</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>113</v>
@@ -8782,19 +8782,19 @@
         <v>113244</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>93892</v>
+        <v>93414</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>139139</v>
+        <v>135697</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1333865782047237</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1105922808862921</v>
+        <v>0.1100297389625085</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1638874479320148</v>
+        <v>0.159833984917787</v>
       </c>
     </row>
     <row r="38">
@@ -8811,19 +8811,19 @@
         <v>44365</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>30294</v>
+        <v>30893</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>63749</v>
+        <v>63406</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.09489942843247987</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.06480145754822271</v>
+        <v>0.06608162528872655</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1363645906946886</v>
+        <v>0.1356303702084033</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>49</v>
@@ -8832,19 +8832,19 @@
         <v>41958</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>31116</v>
+        <v>31551</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>54076</v>
+        <v>54688</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1099833147174756</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.08156201519072542</v>
+        <v>0.08270377681867981</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1417457475450121</v>
+        <v>0.1433503070718244</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>81</v>
@@ -8853,19 +8853,19 @@
         <v>86323</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>68172</v>
+        <v>68600</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>108630</v>
+        <v>107829</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1016774591790343</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.08029831091676216</v>
+        <v>0.08080153793823998</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1279517030130862</v>
+        <v>0.1270091062540069</v>
       </c>
     </row>
     <row r="39">
